--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0.6</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C17">
         <v>0.6</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="C18">
         <v>0.6</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
         <v>0.6</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C32">
         <v>1.6</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="C33">
         <v>1.6</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="C34">
         <v>1.6</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C35">
         <v>1.6</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="C36">
         <v>1.6</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C37">
         <v>1.6</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C38">
         <v>1.6</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C39">
         <v>1.6</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="C40">
         <v>1.6</v>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C41">
         <v>1.6</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C54">
         <v>2.6</v>
@@ -979,7 +979,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C55">
         <v>2.6</v>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C56">
         <v>2.6</v>
@@ -1012,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>2.6</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="C59">
         <v>2.6</v>
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C60">
         <v>2.6</v>
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C61">
         <v>2.6</v>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C72">
         <v>3.6</v>
@@ -1177,7 +1177,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C73">
         <v>3.6</v>
@@ -1188,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C74">
         <v>3.6</v>
@@ -1210,7 +1210,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C76">
         <v>3.6</v>
@@ -1221,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C77">
         <v>3.6</v>
@@ -1232,7 +1232,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C78">
         <v>3.6</v>
@@ -1243,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C79">
         <v>3.6</v>
@@ -1254,7 +1254,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C80">
         <v>3.6</v>
@@ -1265,7 +1265,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C81">
         <v>3.6</v>
@@ -1276,7 +1276,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1287,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1320,7 +1320,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -1342,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -1353,7 +1353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -1375,7 +1375,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="C92">
         <v>4.6</v>
@@ -1397,7 +1397,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C93">
         <v>4.6</v>
@@ -1408,7 +1408,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C94">
         <v>4.6</v>
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C95">
         <v>4.6</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C96">
         <v>4.6</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C97">
         <v>4.6</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C98">
         <v>4.6</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C99">
         <v>4.6</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C112">
         <v>5.6</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C113">
         <v>5.6</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C115">
         <v>5.6</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="C116">
         <v>5.6</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="C117">
         <v>5.6</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C118">
         <v>5.6</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="C119">
         <v>5.6</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="C120">
         <v>5.6</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="C121">
         <v>5.6</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C123">
         <v>6</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C125">
         <v>6</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C126">
         <v>6</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C131">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="C132">
         <v>6.6</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C133">
         <v>6.6</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C134">
         <v>6.6</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C135">
         <v>6.6</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C136">
         <v>6.6</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C137">
         <v>6.6</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C138">
         <v>6.6</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C139">
         <v>6.6</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C140">
         <v>6.6</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C141">
         <v>6.6</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C142">
         <v>7</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C143">
         <v>7</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C144">
         <v>7</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="C145">
         <v>7</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C146">
         <v>7</v>
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C147">
         <v>7</v>
@@ -2002,7 +2002,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C148">
         <v>7</v>
@@ -2024,7 +2024,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C150">
         <v>7</v>
@@ -2035,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C151">
         <v>7</v>
